--- a/Kmarket API 설계.xlsx
+++ b/Kmarket API 설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\Workspace\Team1_Kmarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -651,10 +651,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097CC9FFAC65EFA45BEA04EBBB60CAD5B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b23439a91ba18143205c49e90ab13d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60114a07b5dc583519299b7a26e1c8b6">
     <xsd:element name="properties">
@@ -768,22 +784,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE3480B-5504-4F1A-8E81-8AF0C8D9879C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305CDDD2-5EEF-4FF9-9584-902F68B12982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E38BF8-DA76-4FEC-BE1F-43A93506C983}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -797,27 +821,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305CDDD2-5EEF-4FF9-9584-902F68B12982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE3480B-5504-4F1A-8E81-8AF0C8D9879C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>